--- a/data/hotels_by_city/Dallas/Dallas_shard_738.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_738.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1431 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r503003909-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>241642</t>
+  </si>
+  <si>
+    <t>503003909</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r489473710-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>489473710</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Highly recommended loved it</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for some time , it is a wonderful place to stay , staff is very friendly and answered my every question, rooms are clean and comfortable they recently renovated there rooms pool is awesome ,house keeping did a wonderful job nice clean bed  and towels and bathrooms. Location is very good you just take the exit from the highway and that,s it many restaurants near by  . Super fast wifi. Parking is free, breakfast is great.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r488942224-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>488942224</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service was great helped out with everything question I had  house keeping did a great job clean towels and sheets and A/C 's nice and cold the pool clean and ready to use and a great location near the store </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r481172700-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>481172700</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>The Right Place for Comfort</t>
+  </si>
+  <si>
+    <t>I've been having to relocate frequently due to my job, and due to this I've been able to experience staying at various motels within. But none like the Super 8 located in the Garland/North Dallas area. The environment is calm and relaxing. There's no loitering outside or in the hallways like other motels Ive been in before. I don't have to worry about my vehicle being broke into either. The person behind the desk is always willing to help and answer any questions or concerns you may have with a smile and wonderful hospitality. so service is great. The rooms are designed to make you feel more at home. Housekeeping staff is excellent and seem to know exactly how to do their job. Here I have access to a gym and like to swim a few laps in the pool wich stays clean and ready for anyone looking to go for a swim Indoors wich I love because the weather doesn't matter when you don't need to go outside to swim. Breakfast is not exactly a luxurious buffet. But it is good with variety and I am content with it. Overall the great deals with the Wyndham rewards, also management and staff is Excellent. I've decided that Super 8 here at Garland/North Dallas is my choice of preference and it could be yours too. You Need To Come check it outMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I've been having to relocate frequently due to my job, and due to this I've been able to experience staying at various motels within. But none like the Super 8 located in the Garland/North Dallas area. The environment is calm and relaxing. There's no loitering outside or in the hallways like other motels Ive been in before. I don't have to worry about my vehicle being broke into either. The person behind the desk is always willing to help and answer any questions or concerns you may have with a smile and wonderful hospitality. so service is great. The rooms are designed to make you feel more at home. Housekeeping staff is excellent and seem to know exactly how to do their job. Here I have access to a gym and like to swim a few laps in the pool wich stays clean and ready for anyone looking to go for a swim Indoors wich I love because the weather doesn't matter when you don't need to go outside to swim. Breakfast is not exactly a luxurious buffet. But it is good with variety and I am content with it. Overall the great deals with the Wyndham rewards, also management and staff is Excellent. I've decided that Super 8 here at Garland/North Dallas is my choice of preference and it could be yours too. You Need To Come check it outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r477584216-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>477584216</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Best bang for your buck!</t>
+  </si>
+  <si>
+    <t>With all the hotel rates going up.I always know where to go when visiting north Dallas.Conveniently located.I was very impressed with the new remodeling they did recently.The hard wood flooring along with the new design,and not forgetting to mention the bedroom comfort. I get a workout,swim in the indoor pool,and have a great breakfast every morning.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r476304467-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>476304467</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Good stay overall. I am also happy with the Wyndham points program.</t>
+  </si>
+  <si>
+    <t>The stay was good and the service friendly. The front desk clerk was informative about the Wyndham points program.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r475403553-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>475403553</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>My wife, and I stay here exclusively.We have our favorite room we always ask for.We love the new remodelling they have done recently.From the new curtains to the new pillowtop mattress,and not forgetting the relaxing swim we get here in the indoor heated pool.We like it all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r474370767-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>474370767</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Time and Space Spent!</t>
+  </si>
+  <si>
+    <t>Fantastic Time and Space Spent during my stay at this location for business reasons while in Dallas TX. The Ethiopian manager to be exact, great! Staffs welcoming, hospitable at the same time friendly. I have known some 4 stars Hotels that charges a lot of money and yet cannot provide guests with even a small breakfast, a cup of coffee in the morning as guests  return their keys biding bye . This is not so at the Super 8 located in Garland North Dallas.  The management and staffs provide hot coffee in the morning with many varieties of breakfast choices to choose from, nice cool orange and apple soft drinks, a bowl of cereal,milk , bread toasted  just to mention a few.  Certainly, the management do not have to do these things but yet they are committed doing all these as service to their guests. My stay, was indeed worth every dollar  I spent...why pay more than you can save while in your Business trip in Dallas? I will certainly come back again whenever I am in town. Cudos! "Do to others what you would have them do to you." Loro.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Goitom A, Manager at Super 8 Garland North Dallas Area, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Fantastic Time and Space Spent during my stay at this location for business reasons while in Dallas TX. The Ethiopian manager to be exact, great! Staffs welcoming, hospitable at the same time friendly. I have known some 4 stars Hotels that charges a lot of money and yet cannot provide guests with even a small breakfast, a cup of coffee in the morning as guests  return their keys biding bye . This is not so at the Super 8 located in Garland North Dallas.  The management and staffs provide hot coffee in the morning with many varieties of breakfast choices to choose from, nice cool orange and apple soft drinks, a bowl of cereal,milk , bread toasted  just to mention a few.  Certainly, the management do not have to do these things but yet they are committed doing all these as service to their guests. My stay, was indeed worth every dollar  I spent...why pay more than you can save while in your Business trip in Dallas? I will certainly come back again whenever I am in town. Cudos! "Do to others what you would have them do to you." Loro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r473961703-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>473961703</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I Enojoyed Super 8 During  My stay in GarlandTX.location wos perfect,personal Were friendly,room wos clean and quite,Healthy morning brakefasr,It was aWonderful temperature controlledIndoor pool. My stay in Super 8 woesWonderful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r463934728-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>463934728</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>nightmare with manager</t>
+  </si>
+  <si>
+    <t>Management sucks. he hates Americans is very rude. Accused me of taking TV cable cord. Cou look d not watch TV all night</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r462511558-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>462511558</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Bef bugs</t>
+  </si>
+  <si>
+    <t>Elevator did not work fire alarm went off in the middle of the night found bed bugs rooms were dirty</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r462498946-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>462498946</t>
+  </si>
+  <si>
+    <t>Super8</t>
+  </si>
+  <si>
+    <t>Great place to sleep enjoyed my stay was for a business tripp and i wouldn't mind coming back to stay. Business trip was cut short but still had a pleasant experience with staff and overall help. Clean good location and friendly people. I would like to give and over all 10 as far as cleanness.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r436449973-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>436449973</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Absolute worst EVER</t>
+  </si>
+  <si>
+    <t>12/15 spit marks in bathroom. tobacco chewer spit on walls. Un touched. OK i check this in every hotel i stay in i check the bed. The hair gel on the sheets clued me in to some thing not right. Sure enough. Hair in bed under pillow. Pubic hairs in bed. Not a towelrack in sight so my bath towels were waiting for me on the back of the toilet. Now im sure that a maid that would skip changing the sheets is going to really clean the back of the toilet....ya think?</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r431608674-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>431608674</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>From the start walking in the building smelled like old wet towels. When we got in the room the carpet was filthy with left over cereal crumbs from the prior guest. The restroom had leftover trash in restroom and there were bugs crawling. I was so disgusted I checked out next day due to they had already charged me for the night worst experience ever.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r427751789-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>427751789</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>The hotel was "Okay" literally ! No frills stayed there for a weekend in Dallas only used it for a sleeping place wasn't there most of the day so didn't have any issues. I would stay there again only if I needed a place to stay for the weekend.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r418878769-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>418878769</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r417942898-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>417942898</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay forShould have read reviews, but if...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you pay forShould have read reviews, but if you just want to use for cheap night of sleep, this is your place </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r414322159-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>414322159</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r372482318-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>372482318</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r372198907-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>372198907</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Goitom A, Front Office Manager at Super 8 Garland North Dallas Area, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r364997470-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>364997470</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Terrible smoke odor</t>
+  </si>
+  <si>
+    <t>For the price we paid, the room was okay. Only two things were terrrible... Annoying smoke alarm that wont stop and even though we requested a non smoking room, the smell of cigarette was so strong  that the clothes we had in our bags still stinks like that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r357866284-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>357866284</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r357832650-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>357832650</t>
+  </si>
+  <si>
+    <t>Pleasant Enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price was exactly as receipt on internet order showed, nothing more nothing less. I appreciated that very much! Room, the carpet needs cleaning badly, and door needs replaced other than that it was ok. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r354813526-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>354813526</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r337890863-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>337890863</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r337393198-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>337393198</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r333041632-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>333041632</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Dont stay at this hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place had roaches.  cigarette burns on the sheets, rooms were falling apart. not very good up keep.  only good thing about it was the location and wifi </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r328091658-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>328091658</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r326394714-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>326394714</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel for only one night</t>
+  </si>
+  <si>
+    <t>It’s a nice hotel for only one night. We request non-smoking room, but we got smoking that smelled so bad I was about to throw up, and I am occasional smoker. The hotel service was very nice and they switch our room with non-smoking one. The room was looking like a scene where there was a shooting, there were holes everywhere, the wall, door, you name it. It’s cheap hotel so you get what you pay for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r324936099-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>324936099</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>NEEDS WORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room could use some remodeling , but wasnt horrible everything worked so I was good. The grounds looed decent.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r316696668-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>316696668</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Weekend travels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a nice, safe place to stay and was close to family we visited. Enjoyed the hospitality of the hotel staff. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r314563321-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>314563321</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>worst stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've never checked out of a hotel/motel because of issues, until this visit. The non-smoking room reeked of smoke. The bed itself smelled. The wall paper, the paint, and even the ceiling was peeling! The carpet was so filthy, it was sticking to our bare feet! The sink was cracked. The furniture was chipped and terribly strained.The ONLY reason we stayed was because it was 10 pm when we arrived and we were exhausted from traveling all day to my husband's dad's funeral. We had to get some sleep.  We cancelled our next night and had to travel 90 min to find another room of any kind.  </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r312519507-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>312519507</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Like the rates, but the hotel needs to update  several...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like the rates, but the hotel needs to update  several things, carpet in rooms, bathroom, shower faucet, TV had a hard time to connect to cable on one room on another  room they were not able to connect to it, the whirlpool  was operative, the water was warm but the pump was not working. Personnel  on desk were helpful. Breakfast was something  else. No hot coffee unless you were lucky  to be the first one, they ran out off Decaf coffee and did not brew a fresh pot, had to heat waffles.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r300884654-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>300884654</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r299334288-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>299334288</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>bad experience</t>
+  </si>
+  <si>
+    <t>There were holes in the walls, wall paper was peeling off walls, toilet tissue holder had holes all around it, desk personnel were not very nice at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r299330071-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>299330071</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel smelled of smoke all throughout the hall way the rooms were OK and very comfortable. My friends room had a hole in the wall. But the smell of smoke throughout the hotel is horrible. Breakfast is disappointing. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r288159961-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>288159961</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>One and Done</t>
+  </si>
+  <si>
+    <t>The overall experience with this hotel was less than satisfactory.  Most of the disappointment came from the lack of maintenance of our room.  The shower had a hole in the ceiling, the toilet constantly was running water and the overall look of the room was begging for attention. We were really looking forward to the pool, but the pool was extremely dirty (my son came out of the pool with green stuff on his back ewwww!) and the hot tub was not hot enough. The complementary breakfast was not acceptable, as all they had downstairs was cereal, milk and bread. Was confused that we had to pay before our one night stay, all other hotels that I've stayed at required payment upon checkout. To end on a positive note, the staff on hand were friendly and accommodated us the best of their ability.   And that is the only reason why I gave two stars instead of one.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The overall experience with this hotel was less than satisfactory.  Most of the disappointment came from the lack of maintenance of our room.  The shower had a hole in the ceiling, the toilet constantly was running water and the overall look of the room was begging for attention. We were really looking forward to the pool, but the pool was extremely dirty (my son came out of the pool with green stuff on his back ewwww!) and the hot tub was not hot enough. The complementary breakfast was not acceptable, as all they had downstairs was cereal, milk and bread. Was confused that we had to pay before our one night stay, all other hotels that I've stayed at required payment upon checkout. To end on a positive note, the staff on hand were friendly and accommodated us the best of their ability.   And that is the only reason why I gave two stars instead of one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r286629331-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>286629331</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r282459693-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>282459693</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>First off the bathroom area was disgusting. I had to send my husband to get bleach.  Our bed sheets was nasty like they took the head of the sheet and put it at the foot of the bed lucky i was prepared and had our own sheets for the beds... The whole point of staying was because they had an indoor pool. I went to the front desk to ask if it was open the gentleman said yes then i asked was it clean and was it safe to swim in he said yes nothing is wrong with it besides the filter is broken. I played crazy and said so it's clean and safe to swim and he said yes no problem.. I will never stay here again i have all my pictures and recording and i want my full refund. And i will get it..MoreShow less</t>
+  </si>
+  <si>
+    <t>First off the bathroom area was disgusting. I had to send my husband to get bleach.  Our bed sheets was nasty like they took the head of the sheet and put it at the foot of the bed lucky i was prepared and had our own sheets for the beds... The whole point of staying was because they had an indoor pool. I went to the front desk to ask if it was open the gentleman said yes then i asked was it clean and was it safe to swim in he said yes nothing is wrong with it besides the filter is broken. I played crazy and said so it's clean and safe to swim and he said yes no problem.. I will never stay here again i have all my pictures and recording and i want my full refund. And i will get it..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r278991368-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>278991368</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>This hotel needs a great deal of updating!  The walls, the bathroom, the tv, the carpets!  I would not be comfortable walking without shoes in my room.  Also the front desk was more interested in reading than serving the customer.  I had to wait for them to put down the paper.  I usually stay at the Microtel on Pendleton, which is much better!  I would not stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r278580758-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>278580758</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Horrible. Dirty. Scary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No no no. Run far far away as quick as possible. Unless of course you like hot rooms and the sound of traffic. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r273195695-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>273195695</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>need update of furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No iron in rooms. Went to desk got one thst ruin my clothes   had to discsrd my white pants cuzz of leaky iron.  Tv old   need and upgrade. Or wall mount.   Desk too small. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r266507745-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>266507745</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING DO NOT STAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not stay unless you like drugs and attics who use them. Dirty place and Un healthy. Be sure to review all negative reviews. Do not believe the pictures. Mold and dried blood on walls. Rather have my family sleep in car then stay there. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r265541205-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>265541205</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because of pictures on website and the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at this hotel because of pictures on website and the indoor pool and jacuzzi. Highly disappointed! Pool was FREEZING And Jacuzzi Didn't work. rooms were old and outdated and carpet had rips all threw out hotel room and hotel </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r262980970-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>262980970</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Clean room.  Friendly staff</t>
+  </si>
+  <si>
+    <t>Clean room.  Well furnished.  Large.  Heat/air functioned perfectly.  Bed comfy but could be replaced or a pillow top added.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r260183110-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>260183110</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Disappointment at it's finest</t>
+  </si>
+  <si>
+    <t>PROSParking was goodCONSHoles in doors, screws coming out of walls, hot tub wasn't hot, smelled like pot throughout the hotel, one of the beds didn't come with a fitted sheet on it, keys to rooms weren't reliable, breakfast was barely anything</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r260033479-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>260033479</t>
+  </si>
+  <si>
+    <t>Economical &amp; Fine for what we needed</t>
+  </si>
+  <si>
+    <t>Took my daughter for a quick overnight stay to Dallas for BeautyCon. The property is older and your expectations can't be those of a 4star hotel but the staff was courteous. We had no issues with our stay. We would go back for short term needs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r259005038-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>259005038</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>super 8 in garland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place needs to be condemned. There is standing stagnated sewage in every room..the so callled heated pool and spa were cold and had ceiling tile floating in them. My family will never go or recommend this hotel to anyone again  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r247731051-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>247731051</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at this hotel every time i have to travel to Dallas. Its at a great price with an inside pool and hot tub. It needs repairs but is clean and economical. Will stay again! </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r246340480-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>246340480</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Relative to other motels in our neighborhood it was excellent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We wanted to use a motel/hotel in our neighborhood as an "extra" room for family at Christmas. My son's family stayed there and they said it was OK to Good. Relative to other motels in our neighborhood it was Excellent. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r245681955-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>245681955</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>The first room we got had not been cleaned and it was after...</t>
+  </si>
+  <si>
+    <t>The first room we got had not been cleaned and it was after 3 when check in was 2. The 2nd room the fridge was not plugged in</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r237869754-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>237869754</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r237504878-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>237504878</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>World Class Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I recently stayed at the Super 8 in Garland, Tx.We were very impressed by not only the value, but the cleanliness, and overall first class service the location offered.We actually stayed a month.We will definately be back.Thanks.Sincerly, Daniel and Yoli Yanez </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r235261843-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>235261843</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Yikes!</t>
+  </si>
+  <si>
+    <t>I have never stayed in such a poorly maintained hotel - and I travel 3 weeks out of 4.The wooden chair was broken with a jagged spike sticking out (great in case of vampire attack but dangerous otherwise!) Didn't housekeeping see this???Huge rips in the wallpaper and a hole kicked in the bathroom door, covered with faux wood masking tape. Dirty rugs, broken outlets. What a dump for a big-city hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r222841462-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>222841462</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Isn't as nice as it looks!!</t>
+  </si>
+  <si>
+    <t>We stayed for two nights there, and just horrible!! Our sheets were all burned i guess from people that smoked, and the furniture was all broken it was just ugly period! It's a scary and dirty place. Never again!!!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r220228171-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>220228171</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r217017838-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>217017838</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r213377932-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>213377932</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r212339355-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>212339355</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r205870167-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>205870167</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Alright in a pinch, but stayed at better</t>
+  </si>
+  <si>
+    <t>- Hallways smelled bad- Ice machine on bottom floor had broke and leaked through the wall and floor onto the other side and soak the carpet in hall, smelled bad- hole in bathroom door that wouldn't close- pool was not heated as advertised- front desk help was nice enough</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r201664057-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>201664057</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Was not clean, holes in door , the whole hotel smelled like smoke, would of found a new hotel is could find rooms for all of team. Someone said they had ants in room manager asked if they want ant spray.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r200352034-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>200352034</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>I got this room because it was inexpensive, but it's not worth it when you worry about the cleanliness of the bed so you can't sleep, when room next door people are physically and verbally fighting til 2 am, couldn't even find a clerk at check-in. Never again. Also, trouble with internet connection - trouble connecting, when did connect trouble functioning, so slow, wonder if safe?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r196405746-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>196405746</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r185124948-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>185124948</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Goitom A, Manager at Super 8 Garland North Dallas Area, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r184568878-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>184568878</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Needs updateing and repairs.</t>
+  </si>
+  <si>
+    <t>The bedspread had cigerette burns so did the blankets. The bathroom ceinling had black mold growing on the ceiling. The pool area had no towels available. The walss were cracked in by the window. One window was open, I thought that was a security risk. The ceiling had panels missing. Breakfast was horrible.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r184289493-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>184289493</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Great place for great price</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 2 nights.  Staff was friendly upon check in.  Room was very large and clean.  We were very comfortable here and would definitely stay again if in the area.  Best sleep I'd had in awhile.  Very comfortable bed.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r181193722-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>181193722</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Great Staff - Poor hotel</t>
+  </si>
+  <si>
+    <t>The staff was wonderful but for the price of $70 the hotel was a DUMP. Stains on the all (maybe blood) comforter was ripped, hallways spelled of mold (or weed in the morning)</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r181054554-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>181054554</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r174705017-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>174705017</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Too tired to look for something else</t>
+  </si>
+  <si>
+    <t>Price was good-Room was clean-Smell of smoke everywhere/was on nonsmoking floor-refrige not working.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r172809880-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>172809880</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r171780308-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>171780308</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The overnight stay at this Super 8 was acceptable. Motel was secure. Cleanliness was somewhat dissappointing. A dead cockroach was found on bathroom floor. Continental breakfast was a little lacking in choiices.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r170953764-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>170953764</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r165254753-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>165254753</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Best for Budget Travel</t>
+  </si>
+  <si>
+    <t>Four stars for the budget hotel that it is. It is great for its class. Some of the previous reviews seemed to be unfair given the low price of this hotel stay. It is not the four seasons but it does not charge four seasons prices either.CONS: The décor and furnishings are worn and dated. The paint is peeling in some places. The first floor ice machine was broken and the treadmill was broken.PROS: Great price, clean rooms, clean linens, micro fridge included. Great staff, fantastic heated indoor pool and spa, free breakfast included cereal, toast, coffee, juice, and/or pastries - a bit sparse compared to some but we just  bought our own extras and kept them in the included mini-fridge. The ice machine on second floor worked fine. They also offer a laundromat room on the third floor which we used and were happy to have. We would stay here again and recommend it to anyone who is looking to travel on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Four stars for the budget hotel that it is. It is great for its class. Some of the previous reviews seemed to be unfair given the low price of this hotel stay. It is not the four seasons but it does not charge four seasons prices either.CONS: The décor and furnishings are worn and dated. The paint is peeling in some places. The first floor ice machine was broken and the treadmill was broken.PROS: Great price, clean rooms, clean linens, micro fridge included. Great staff, fantastic heated indoor pool and spa, free breakfast included cereal, toast, coffee, juice, and/or pastries - a bit sparse compared to some but we just  bought our own extras and kept them in the included mini-fridge. The ice machine on second floor worked fine. They also offer a laundromat room on the third floor which we used and were happy to have. We would stay here again and recommend it to anyone who is looking to travel on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r164263147-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>164263147</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Nothing fancy ,but it served its purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although the place was peaceful, the room was decent but outdated. The first room smelled so badly of smoke I had to change to another room. I feel the rooms could use a makeover and be brought to the 21st century. A radio/ MPC player, comforters, pictures and shower curtain. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r164001191-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>164001191</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Okay but needs improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm beginning to think it's worth a few dollars more to try another chain. After checking in found the sink was clogged,  it took over 24 hours to get it fixed. Morning staff friendly,  evening staff was rude at times. Magnetic lock speed working the night before checkout, but just used deadbolt since we were not going out again. Hotel needs work and is apparent as soon as you start to walk down the hall. Best feature was the indoor pool which was or main reason for this location.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r156330416-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>156330416</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r156175839-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>156175839</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r155552791-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>155552791</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r154277480-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>154277480</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Cock Roach</t>
+  </si>
+  <si>
+    <t>I had the worst experience I have ever had in a hotel at this particular Super 8.  I woke up in the middle of the night to a cock roach the size of a credit card crawling across my chest.  I immediately packed my things and went down and asked for a refund. When I told the guy at the front desk why I wanted a refund, he wasn't surprised by my answer with the cock roach, and in fact, his comment was, "Yeah, I think they get in through the window."  Absolutely the worst experience ever!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r154043304-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>154043304</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>Overall my stay at this super8 was a great experience. The...</t>
+  </si>
+  <si>
+    <t>Overall my stay at this super8 was a great experience. The only thing is i didnt see good breakfast items put out for customers. The food look kind of old. Other wise i had a good stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r152586876-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>152586876</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Nice location,price and amenities</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights for less than $150 and it had more amenities than the more expensive hotels Staff was friendly, they had a indoor pool,breakfast,cable and a fridge and mircowave in the room too! room was cleaned daily and it was quiet at night also so overall it was the best hotel ive stayed in a long time without emptying my pockets...very worth the money. only thing is breakfast goes pretty fast but thats nothing though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r146593238-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>146593238</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Eh if I had to stay at a cheap hotel again I would choose this one I guess.</t>
+  </si>
+  <si>
+    <t>It's okay... The place really needs a make-over. There's stains on the carpet and the room looks a little dirty but not too much. The exercise room sucks nothing in there worked but at least they had a flat screen in there. The pool was nice though. The staff is okay they're not rude and they're not super friendly they're just "okay" as I said. There's a soda vending machine on every floor so you don't have to go all the way down to first floor. So if your low on cash and need to stay somewhere super 8 would be okay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r146118089-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>146118089</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r144146390-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>144146390</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Worst bed i ever slept on</t>
+  </si>
+  <si>
+    <t>I have stayed over 25 nights in hotels this yearThat was the worst bed I ever slept onI have thrown beds away in way better shapeit had HUGE black stains on box spring and moldthe mattress was not even flatThat bed should be thrown away</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142785960-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>142785960</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Will never ever stay here ever again!!</t>
+  </si>
+  <si>
+    <t>Wow! How to explain! When we first checked in they gave us room that was either not cleaned yet or still occupied. We go back to the service desk and no one to be found. Then we finally got another room. We came from out of town and I have to say it was right off 635, so that was easy to get to. When we went to go to bed my son and husband we already in bed i pulled the sheets and there bugs under the pillow and a someones bra! I could also tell the pillow cases were not washed because there was lipstick still there. Yuck! We decided to leave and they refused to refund or discount us. They did offer our next time to be free!! No way!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! How to explain! When we first checked in they gave us room that was either not cleaned yet or still occupied. We go back to the service desk and no one to be found. Then we finally got another room. We came from out of town and I have to say it was right off 635, so that was easy to get to. When we went to go to bed my son and husband we already in bed i pulled the sheets and there bugs under the pillow and a someones bra! I could also tell the pillow cases were not washed because there was lipstick still there. Yuck! We decided to leave and they refused to refund or discount us. They did offer our next time to be free!! No way!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142603805-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>142603805</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142438811-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>142438811</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r135296051-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>135296051</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We were staying at the Super 8 for a clean, inexpensive room for a softball tournament. The room smelled funny, carpets ripped, holes in doors, walls, comforters, etc. The worst hotel experience I have ever had....when we got up to leave the next morning someone had tried to steal our vehicle. The would-be thieves destroyed the door lock, steering column. They also damaged the tailgate trying to break into the truckbed cover we had. I immediately went in to ask for a refund for my second night. The management was accommodating in refunding my money but I would never recommend this hotel to anyone. While filing the police report for the attempted theft we were told the area is known to be frequented by vagrants. My husband was so grossed out by the room he slept in his clothes.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We were staying at the Super 8 for a clean, inexpensive room for a softball tournament. The room smelled funny, carpets ripped, holes in doors, walls, comforters, etc. The worst hotel experience I have ever had....when we got up to leave the next morning someone had tried to steal our vehicle. The would-be thieves destroyed the door lock, steering column. They also damaged the tailgate trying to break into the truckbed cover we had. I immediately went in to ask for a refund for my second night. The management was accommodating in refunding my money but I would never recommend this hotel to anyone. While filing the police report for the attempted theft we were told the area is known to be frequented by vagrants. My husband was so grossed out by the room he slept in his clothes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r132349984-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>132349984</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Wonderful management</t>
+  </si>
+  <si>
+    <t>My sisters and my mom were here for a funeral.  The manager found out and offered us another room (there were 5 of us) at a huge discount.  He also let us use his laptop so we could look up restaurants in the area.  The next day he allowed us to keep our rooms longer so we could leave from there to go to the service.  The rooms were clean and the beds were comfortable.  The only complaint is the breakfast which is not very substantial but we went down the street to the Waffle House.  It's a basic hotel with no amenities but the management, clean and comfortable rooms are recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My sisters and my mom were here for a funeral.  The manager found out and offered us another room (there were 5 of us) at a huge discount.  He also let us use his laptop so we could look up restaurants in the area.  The next day he allowed us to keep our rooms longer so we could leave from there to go to the service.  The rooms were clean and the beds were comfortable.  The only complaint is the breakfast which is not very substantial but we went down the street to the Waffle House.  It's a basic hotel with no amenities but the management, clean and comfortable rooms are recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r129173793-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>129173793</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>YUCK!</t>
+  </si>
+  <si>
+    <t>HORRIBLE. dirty floors/elevator, TP holder in bath fell off wall, wallpaper peeled off, lamps switch broken, dirty/stained sheets, blood on mattress, mattress pad stained/ hair on it, door would not lock until manager changed battery, no plates in breakfast room, "non-smoking" room reeked of smoke, broken heat/ac units in brkfst room, very limited brkfst-no plates, Interstate noise,</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r91146582-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>91146582</t>
+  </si>
+  <si>
+    <t>12/30/2010</t>
+  </si>
+  <si>
+    <t>Needs Some TLC</t>
+  </si>
+  <si>
+    <t>The first room we were given had a heater unit that had the knobs broken off and a TV that sounded like it was about to detonate each time we turned it on.  The GM cheerfully gave us a different room.  Although we had to use the sun lamp in the bathroom because the regular overhead light was burned out, the room was fine.You could tell that this used to be a pretty nice place and has been abused by some of the lodgers.  Some fresh paint and bit of refreshing would go a long way.  The location is good, the price is right and the GM is very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The first room we were given had a heater unit that had the knobs broken off and a TV that sounded like it was about to detonate each time we turned it on.  The GM cheerfully gave us a different room.  Although we had to use the sun lamp in the bathroom because the regular overhead light was burned out, the room was fine.You could tell that this used to be a pretty nice place and has been abused by some of the lodgers.  Some fresh paint and bit of refreshing would go a long way.  The location is good, the price is right and the GM is very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r49461418-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>49461418</t>
+  </si>
+  <si>
+    <t>11/17/2009</t>
+  </si>
+  <si>
+    <t>Very Nice and Quiet</t>
+  </si>
+  <si>
+    <t>This Super 8 is tucked into the side of Interstate 30, Sorta hard to get to, You have to exit on the exact street or have to go on down the interstate and loop back. Once we learned that It was good. Nice room, Clean and well appointed. Stayed three days and visited garland since we lived here 30 years ago and this is the first time back. It is run by an Indian family who lives on the premises. Nice folks. The breakfast is pretty limited but we don't eat much anyway.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r10064071-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>10064071</t>
+  </si>
+  <si>
+    <t>10/10/2007</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>We had originally booked another super 8 in lewisville, tx however, we booked a non smk room but it was smoked in so we tried the Garland Hotel.  Very difficult to get to it as it was on a one way service road along the LBJ xway.  We were very disappointed and when we finally stopped moving (we were sent to 5 different rooms), it was adequate but the smell outside the room was very bad.  To begin with, the power to the A/C was not turned on until we paid then the flipped the switch behind the front desk.  The room on arrival was hot as was the hallways as they didn't cool or even ventilate the hallway either.  The elevator had an expired certificate of inspection on it and was very slow.  Our first room was a handicap room and the drapery were hanging so badly that light was not blocked out and bolted to the rod.  The shower was broken so that a handicaped person could not even have used it.  When we complained, the clerk said he knew about the shower!!!???  We were moved into the room next door but the A/C wouldn't even come on in that room.  The third room had a hole in the wall and the wall paper was coming down.  Fourth room was just plain nasty and dirty.  We finally found a room that was acceptable but during the night, went...We had originally booked another super 8 in lewisville, tx however, we booked a non smk room but it was smoked in so we tried the Garland Hotel.  Very difficult to get to it as it was on a one way service road along the LBJ xway.  We were very disappointed and when we finally stopped moving (we were sent to 5 different rooms), it was adequate but the smell outside the room was very bad.  To begin with, the power to the A/C was not turned on until we paid then the flipped the switch behind the front desk.  The room on arrival was hot as was the hallways as they didn't cool or even ventilate the hallway either.  The elevator had an expired certificate of inspection on it and was very slow.  Our first room was a handicap room and the drapery were hanging so badly that light was not blocked out and bolted to the rod.  The shower was broken so that a handicaped person could not even have used it.  When we complained, the clerk said he knew about the shower!!!???  We were moved into the room next door but the A/C wouldn't even come on in that room.  The third room had a hole in the wall and the wall paper was coming down.  Fourth room was just plain nasty and dirty.  We finally found a room that was acceptable but during the night, went to the pop machine just outside the door and found out we didn't need the door key to get into the room as the lock was inoperable.  We barracaded ourselves inside and moved to another room on a different floor the next morning where we at least found ourselves safer but the smell outside our room was so bad we had to hold our breath until we got inside and the heat and lack of ventilation in the halls made it worse.  The only thing that was adequate in this hotel was a nice pool room but there were no towels, you had to use your room towels and they did not provide extra for the showers.  When we complained to the manager, he simply stated that he would give us a break on our next stay---yeah right!  The day we left, we asked if there was a place we could get a nice breakfast nearby and the clerk didn't know of one even though there was a waffle house right across the street.  He offered us coupons for Dominos or Pizza Hut.  I have never, ever been in a place as horrible as this.  If my wife was with me instead of my brother, we would have been gone in the first hour.  Don't stay here if you can afford a few extra bucks, there is a nice Days Inn and a Motel 6 less than 3 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>We had originally booked another super 8 in lewisville, tx however, we booked a non smk room but it was smoked in so we tried the Garland Hotel.  Very difficult to get to it as it was on a one way service road along the LBJ xway.  We were very disappointed and when we finally stopped moving (we were sent to 5 different rooms), it was adequate but the smell outside the room was very bad.  To begin with, the power to the A/C was not turned on until we paid then the flipped the switch behind the front desk.  The room on arrival was hot as was the hallways as they didn't cool or even ventilate the hallway either.  The elevator had an expired certificate of inspection on it and was very slow.  Our first room was a handicap room and the drapery were hanging so badly that light was not blocked out and bolted to the rod.  The shower was broken so that a handicaped person could not even have used it.  When we complained, the clerk said he knew about the shower!!!???  We were moved into the room next door but the A/C wouldn't even come on in that room.  The third room had a hole in the wall and the wall paper was coming down.  Fourth room was just plain nasty and dirty.  We finally found a room that was acceptable but during the night, went...We had originally booked another super 8 in lewisville, tx however, we booked a non smk room but it was smoked in so we tried the Garland Hotel.  Very difficult to get to it as it was on a one way service road along the LBJ xway.  We were very disappointed and when we finally stopped moving (we were sent to 5 different rooms), it was adequate but the smell outside the room was very bad.  To begin with, the power to the A/C was not turned on until we paid then the flipped the switch behind the front desk.  The room on arrival was hot as was the hallways as they didn't cool or even ventilate the hallway either.  The elevator had an expired certificate of inspection on it and was very slow.  Our first room was a handicap room and the drapery were hanging so badly that light was not blocked out and bolted to the rod.  The shower was broken so that a handicaped person could not even have used it.  When we complained, the clerk said he knew about the shower!!!???  We were moved into the room next door but the A/C wouldn't even come on in that room.  The third room had a hole in the wall and the wall paper was coming down.  Fourth room was just plain nasty and dirty.  We finally found a room that was acceptable but during the night, went to the pop machine just outside the door and found out we didn't need the door key to get into the room as the lock was inoperable.  We barracaded ourselves inside and moved to another room on a different floor the next morning where we at least found ourselves safer but the smell outside our room was so bad we had to hold our breath until we got inside and the heat and lack of ventilation in the halls made it worse.  The only thing that was adequate in this hotel was a nice pool room but there were no towels, you had to use your room towels and they did not provide extra for the showers.  When we complained to the manager, he simply stated that he would give us a break on our next stay---yeah right!  The day we left, we asked if there was a place we could get a nice breakfast nearby and the clerk didn't know of one even though there was a waffle house right across the street.  He offered us coupons for Dominos or Pizza Hut.  I have never, ever been in a place as horrible as this.  If my wife was with me instead of my brother, we would have been gone in the first hour.  Don't stay here if you can afford a few extra bucks, there is a nice Days Inn and a Motel 6 less than 3 miles away.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2073,5933 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>157</v>
+      </c>
+      <c r="X21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>177</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" t="s">
+        <v>216</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+      <c r="J35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" t="s">
+        <v>234</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
+        <v>239</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>240</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>245</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>240</v>
+      </c>
+      <c r="O40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>240</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>262</v>
+      </c>
+      <c r="O43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" t="s">
+        <v>267</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" t="s">
+        <v>272</v>
+      </c>
+      <c r="L45" t="s">
+        <v>273</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>279</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>286</v>
+      </c>
+      <c r="J48" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O48" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J49" t="s">
+        <v>291</v>
+      </c>
+      <c r="K49" t="s">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s">
+        <v>293</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>279</v>
+      </c>
+      <c r="O49" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>299</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" t="s">
+        <v>302</v>
+      </c>
+      <c r="K51" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" t="s">
+        <v>304</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>306</v>
+      </c>
+      <c r="J52" t="s">
+        <v>307</v>
+      </c>
+      <c r="K52" t="s">
+        <v>308</v>
+      </c>
+      <c r="L52" t="s">
+        <v>309</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>299</v>
+      </c>
+      <c r="O52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>310</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>311</v>
+      </c>
+      <c r="J53" t="s">
+        <v>312</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>146</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>313</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" t="s">
+        <v>316</v>
+      </c>
+      <c r="K54" t="s">
+        <v>317</v>
+      </c>
+      <c r="L54" t="s">
+        <v>318</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>319</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" t="s">
+        <v>324</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>313</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>326</v>
+      </c>
+      <c r="J56" t="s">
+        <v>327</v>
+      </c>
+      <c r="K56" t="s">
+        <v>328</v>
+      </c>
+      <c r="L56" t="s">
+        <v>329</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>330</v>
+      </c>
+      <c r="O56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>332</v>
+      </c>
+      <c r="J57" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>330</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>334</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>335</v>
+      </c>
+      <c r="J58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>337</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" t="s">
+        <v>340</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>341</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>341</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>346</v>
+      </c>
+      <c r="J61" t="s">
+        <v>347</v>
+      </c>
+      <c r="K61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" t="s">
+        <v>349</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>351</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" t="s">
+        <v>354</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>355</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>357</v>
+      </c>
+      <c r="J63" t="s">
+        <v>358</v>
+      </c>
+      <c r="K63" t="s">
+        <v>359</v>
+      </c>
+      <c r="L63" t="s">
+        <v>360</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>355</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" t="s">
+        <v>363</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>364</v>
+      </c>
+      <c r="O64" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>365</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65" t="s">
+        <v>367</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>146</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>368</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>369</v>
+      </c>
+      <c r="X65" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" t="s">
+        <v>373</v>
+      </c>
+      <c r="K66" t="s">
+        <v>374</v>
+      </c>
+      <c r="L66" t="s">
+        <v>375</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>368</v>
+      </c>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>377</v>
+      </c>
+      <c r="J67" t="s">
+        <v>378</v>
+      </c>
+      <c r="K67" t="s">
+        <v>379</v>
+      </c>
+      <c r="L67" t="s">
+        <v>380</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>381</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>383</v>
+      </c>
+      <c r="J68" t="s">
+        <v>384</v>
+      </c>
+      <c r="K68" t="s">
+        <v>385</v>
+      </c>
+      <c r="L68" t="s">
+        <v>386</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>387</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" t="s">
+        <v>390</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>387</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>391</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>392</v>
+      </c>
+      <c r="J70" t="s">
+        <v>393</v>
+      </c>
+      <c r="K70" t="s">
+        <v>394</v>
+      </c>
+      <c r="L70" t="s">
+        <v>395</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>396</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" t="s">
+        <v>399</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>396</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>401</v>
+      </c>
+      <c r="J72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s">
+        <v>403</v>
+      </c>
+      <c r="L72" t="s">
+        <v>404</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>396</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>405</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>406</v>
+      </c>
+      <c r="J73" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>408</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>409</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>410</v>
+      </c>
+      <c r="J74" t="s">
+        <v>411</v>
+      </c>
+      <c r="K74" t="s">
+        <v>412</v>
+      </c>
+      <c r="L74" t="s">
+        <v>413</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>414</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>417</v>
+      </c>
+      <c r="J75" t="s">
+        <v>418</v>
+      </c>
+      <c r="K75" t="s">
+        <v>419</v>
+      </c>
+      <c r="L75" t="s">
+        <v>420</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>414</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>421</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>422</v>
+      </c>
+      <c r="J76" t="s">
+        <v>423</v>
+      </c>
+      <c r="K76" t="s">
+        <v>424</v>
+      </c>
+      <c r="L76" t="s">
+        <v>425</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>414</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>426</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>427</v>
+      </c>
+      <c r="J77" t="s">
+        <v>428</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>429</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>431</v>
+      </c>
+      <c r="J78" t="s">
+        <v>432</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>429</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>433</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>434</v>
+      </c>
+      <c r="J79" t="s">
+        <v>435</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>429</v>
+      </c>
+      <c r="O79" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>436</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>437</v>
+      </c>
+      <c r="J80" t="s">
+        <v>438</v>
+      </c>
+      <c r="K80" t="s">
+        <v>439</v>
+      </c>
+      <c r="L80" t="s">
+        <v>440</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>441</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>442</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>443</v>
+      </c>
+      <c r="J81" t="s">
+        <v>444</v>
+      </c>
+      <c r="K81" t="s">
+        <v>445</v>
+      </c>
+      <c r="L81" t="s">
+        <v>446</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>429</v>
+      </c>
+      <c r="O81" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>447</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>448</v>
+      </c>
+      <c r="J82" t="s">
+        <v>449</v>
+      </c>
+      <c r="K82" t="s">
+        <v>450</v>
+      </c>
+      <c r="L82" t="s">
+        <v>451</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>441</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>453</v>
+      </c>
+      <c r="J83" t="s">
+        <v>454</v>
+      </c>
+      <c r="K83" t="s">
+        <v>455</v>
+      </c>
+      <c r="L83" t="s">
+        <v>456</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>458</v>
+      </c>
+      <c r="J84" t="s">
+        <v>459</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>146</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>460</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>461</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>462</v>
+      </c>
+      <c r="J85" t="s">
+        <v>463</v>
+      </c>
+      <c r="K85" t="s">
+        <v>464</v>
+      </c>
+      <c r="L85" t="s">
+        <v>465</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>466</v>
+      </c>
+      <c r="O85" t="s">
+        <v>134</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>467</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>468</v>
+      </c>
+      <c r="J86" t="s">
+        <v>469</v>
+      </c>
+      <c r="K86" t="s">
+        <v>470</v>
+      </c>
+      <c r="L86" t="s">
+        <v>471</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>473</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>474</v>
+      </c>
+      <c r="J87" t="s">
+        <v>475</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>466</v>
+      </c>
+      <c r="O87" t="s">
+        <v>51</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>476</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>477</v>
+      </c>
+      <c r="J88" t="s">
+        <v>478</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>466</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>479</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>480</v>
+      </c>
+      <c r="J89" t="s">
+        <v>481</v>
+      </c>
+      <c r="K89" t="s">
+        <v>482</v>
+      </c>
+      <c r="L89" t="s">
+        <v>483</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>484</v>
+      </c>
+      <c r="O89" t="s">
+        <v>51</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>486</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>487</v>
+      </c>
+      <c r="J90" t="s">
+        <v>488</v>
+      </c>
+      <c r="K90" t="s">
+        <v>489</v>
+      </c>
+      <c r="L90" t="s">
+        <v>490</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>491</v>
+      </c>
+      <c r="O90" t="s">
+        <v>51</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>493</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>494</v>
+      </c>
+      <c r="J91" t="s">
+        <v>495</v>
+      </c>
+      <c r="K91" t="s">
+        <v>496</v>
+      </c>
+      <c r="L91" t="s">
+        <v>497</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>498</v>
+      </c>
+      <c r="O91" t="s">
+        <v>51</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>499</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>500</v>
+      </c>
+      <c r="J92" t="s">
+        <v>501</v>
+      </c>
+      <c r="K92" t="s">
+        <v>502</v>
+      </c>
+      <c r="L92" t="s">
+        <v>503</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>504</v>
+      </c>
+      <c r="O92" t="s">
+        <v>51</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>506</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>507</v>
+      </c>
+      <c r="J93" t="s">
+        <v>508</v>
+      </c>
+      <c r="K93" t="s">
+        <v>509</v>
+      </c>
+      <c r="L93" t="s">
+        <v>510</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>511</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39899</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>512</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>513</v>
+      </c>
+      <c r="J94" t="s">
+        <v>514</v>
+      </c>
+      <c r="K94" t="s">
+        <v>515</v>
+      </c>
+      <c r="L94" t="s">
+        <v>516</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>517</v>
+      </c>
+      <c r="O94" t="s">
+        <v>51</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_738.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_738.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SexyLexy23</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Ijaz A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r489473710-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Man1876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r488942224-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jona515than</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r481172700-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>I've been having to relocate frequently due to my job, and due to this I've been able to experience staying at various motels within. But none like the Super 8 located in the Garland/North Dallas area. The environment is calm and relaxing. There's no loitering outside or in the hallways like other motels Ive been in before. I don't have to worry about my vehicle being broke into either. The person behind the desk is always willing to help and answer any questions or concerns you may have with a smile and wonderful hospitality. so service is great. The rooms are designed to make you feel more at home. Housekeeping staff is excellent and seem to know exactly how to do their job. Here I have access to a gym and like to swim a few laps in the pool wich stays clean and ready for anyone looking to go for a swim Indoors wich I love because the weather doesn't matter when you don't need to go outside to swim. Breakfast is not exactly a luxurious buffet. But it is good with variety and I am content with it. Overall the great deals with the Wyndham rewards, also management and staff is Excellent. I've decided that Super 8 here at Garland/North Dallas is my choice of preference and it could be yours too. You Need To Come check it outMore</t>
   </si>
   <si>
+    <t>Yoli R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r477584216-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>G9059KYantonioa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r476304467-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t>The stay was good and the service friendly. The front desk clerk was informative about the Wyndham points program.</t>
   </si>
   <si>
+    <t>Daniel Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r475403553-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>TAX EZ F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r474370767-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>Fantastic Time and Space Spent during my stay at this location for business reasons while in Dallas TX. The Ethiopian manager to be exact, great! Staffs welcoming, hospitable at the same time friendly. I have known some 4 stars Hotels that charges a lot of money and yet cannot provide guests with even a small breakfast, a cup of coffee in the morning as guests  return their keys biding bye . This is not so at the Super 8 located in Garland North Dallas.  The management and staffs provide hot coffee in the morning with many varieties of breakfast choices to choose from, nice cool orange and apple soft drinks, a bowl of cereal,milk , bread toasted  just to mention a few.  Certainly, the management do not have to do these things but yet they are committed doing all these as service to their guests. My stay, was indeed worth every dollar  I spent...why pay more than you can save while in your Business trip in Dallas? I will certainly come back again whenever I am in town. Cudos! "Do to others what you would have them do to you." Loro.More</t>
   </si>
   <si>
+    <t>Tekie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r473961703-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>I Enojoyed Super 8 During  My stay in GarlandTX.location wos perfect,personal Were friendly,room wos clean and quite,Healthy morning brakefasr,It was aWonderful temperature controlledIndoor pool. My stay in Super 8 woesWonderful.</t>
   </si>
   <si>
+    <t>markdY1489ZY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r463934728-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>P4695LNalanh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r462511558-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>Elevator did not work fire alarm went off in the middle of the night found bed bugs rooms were dirty</t>
   </si>
   <si>
+    <t>mussiet2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r462498946-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>Great place to sleep enjoyed my stay was for a business tripp and i wouldn't mind coming back to stay. Business trip was cut short but still had a pleasant experience with staff and overall help. Clean good location and friendly people. I would like to give and over all 10 as far as cleanness.</t>
   </si>
   <si>
+    <t xml:space="preserve">   .  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r436449973-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>L400PDbrianc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r431608674-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>From the start walking in the building smelled like old wet towels. When we got in the room the carpet was filthy with left over cereal crumbs from the prior guest. The restroom had leftover trash in restroom and there were bugs crawling. I was so disgusted I checked out next day due to they had already charged me for the night worst experience ever.</t>
   </si>
   <si>
+    <t>js2016237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r427751789-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -423,6 +468,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>O6390MLjamesj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r418878769-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -432,6 +480,9 @@
     <t>09/15/2016</t>
   </si>
   <si>
+    <t>Terrance S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r417942898-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -447,6 +498,9 @@
     <t xml:space="preserve">You get what you pay forShould have read reviews, but if you just want to use for cheap night of sleep, this is your place </t>
   </si>
   <si>
+    <t>meganbX9628NR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r414322159-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -465,6 +519,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>anthonywF8739HU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r372482318-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -477,6 +534,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>CASSANDRA J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r372198907-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -495,6 +555,9 @@
     <t>Responded May 15, 2016</t>
   </si>
   <si>
+    <t>tania c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r364997470-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -510,6 +573,9 @@
     <t>For the price we paid, the room was okay. Only two things were terrrible... Annoying smoke alarm that wont stop and even though we requested a non smoking room, the smell of cigarette was so strong  that the clothes we had in our bags still stinks like that.</t>
   </si>
   <si>
+    <t>155irener</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r357866284-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -519,6 +585,9 @@
     <t>03/23/2016</t>
   </si>
   <si>
+    <t>kbennettntx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r357832650-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -531,6 +600,9 @@
     <t xml:space="preserve">Price was exactly as receipt on internet order showed, nothing more nothing less. I appreciated that very much! Room, the carpet needs cleaning badly, and door needs replaced other than that it was ok. </t>
   </si>
   <si>
+    <t>975tommyp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r354813526-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -540,6 +612,9 @@
     <t>03/12/2016</t>
   </si>
   <si>
+    <t>P1156JFmariaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r337890863-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -552,6 +627,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>M3339JHloris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r337393198-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -561,6 +639,9 @@
     <t>01/04/2016</t>
   </si>
   <si>
+    <t>298phillipc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r333041632-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -576,6 +657,9 @@
     <t xml:space="preserve">Place had roaches.  cigarette burns on the sheets, rooms were falling apart. not very good up keep.  only good thing about it was the location and wifi </t>
   </si>
   <si>
+    <t>H4183VM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r328091658-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -588,6 +672,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Kosta-Macedonia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r326394714-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -618,6 +705,9 @@
     <t xml:space="preserve">The room could use some remodeling , but wasnt horrible everything worked so I was good. The grounds looed decent.  </t>
   </si>
   <si>
+    <t>Missteach74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r316696668-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -654,6 +744,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Macario B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r312519507-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -669,6 +762,9 @@
     <t xml:space="preserve">Like the rates, but the hotel needs to update  several things, carpet in rooms, bathroom, shower faucet, TV had a hard time to connect to cable on one room on another  room they were not able to connect to it, the whirlpool  was operative, the water was warm but the pump was not working. Personnel  on desk were helpful. Breakfast was something  else. No hot coffee unless you were lucky  to be the first one, they ran out off Decaf coffee and did not brew a fresh pot, had to heat waffles.  </t>
   </si>
   <si>
+    <t>Meka W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r300884654-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -681,6 +777,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>carolyna422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r299334288-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -696,6 +795,9 @@
     <t>There were holes in the walls, wall paper was peeling off walls, toilet tissue holder had holes all around it, desk personnel were not very nice at all.</t>
   </si>
   <si>
+    <t>955gissellep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r299330071-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -708,6 +810,9 @@
     <t xml:space="preserve">The hotel smelled of smoke all throughout the hall way the rooms were OK and very comfortable. My friends room had a hole in the wall. But the smell of smoke throughout the hotel is horrible. Breakfast is disappointing. </t>
   </si>
   <si>
+    <t>Dan N G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r288159961-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -729,6 +834,9 @@
     <t>The overall experience with this hotel was less than satisfactory.  Most of the disappointment came from the lack of maintenance of our room.  The shower had a hole in the ceiling, the toilet constantly was running water and the overall look of the room was begging for attention. We were really looking forward to the pool, but the pool was extremely dirty (my son came out of the pool with green stuff on his back ewwww!) and the hot tub was not hot enough. The complementary breakfast was not acceptable, as all they had downstairs was cereal, milk and bread. Was confused that we had to pay before our one night stay, all other hotels that I've stayed at required payment upon checkout. To end on a positive note, the staff on hand were friendly and accommodated us the best of their ability.   And that is the only reason why I gave two stars instead of one.More</t>
   </si>
   <si>
+    <t>Lnl T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r286629331-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -741,6 +849,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>morganj115</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r282459693-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -759,6 +870,9 @@
     <t>First off the bathroom area was disgusting. I had to send my husband to get bleach.  Our bed sheets was nasty like they took the head of the sheet and put it at the foot of the bed lucky i was prepared and had our own sheets for the beds... The whole point of staying was because they had an indoor pool. I went to the front desk to ask if it was open the gentleman said yes then i asked was it clean and was it safe to swim in he said yes nothing is wrong with it besides the filter is broken. I played crazy and said so it's clean and safe to swim and he said yes no problem.. I will never stay here again i have all my pictures and recording and i want my full refund. And i will get it..More</t>
   </si>
   <si>
+    <t>364darlab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r278991368-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -774,6 +888,9 @@
     <t>This hotel needs a great deal of updating!  The walls, the bathroom, the tv, the carpets!  I would not be comfortable walking without shoes in my room.  Also the front desk was more interested in reading than serving the customer.  I had to wait for them to put down the paper.  I usually stay at the Microtel on Pendleton, which is much better!  I would not stay at this hotel again.</t>
   </si>
   <si>
+    <t>698terryn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r278580758-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -789,6 +906,9 @@
     <t xml:space="preserve">No no no. Run far far away as quick as possible. Unless of course you like hot rooms and the sound of traffic. </t>
   </si>
   <si>
+    <t>685marcusj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r273195695-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -807,6 +927,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Greg M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r266507745-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -825,6 +948,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Haley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r265541205-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -840,6 +966,9 @@
     <t xml:space="preserve">Stayed at this hotel because of pictures on website and the indoor pool and jacuzzi. Highly disappointed! Pool was FREEZING And Jacuzzi Didn't work. rooms were old and outdated and carpet had rips all threw out hotel room and hotel </t>
   </si>
   <si>
+    <t>Jacqueline G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r262980970-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -858,6 +987,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Brittney P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r260183110-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1005,9 @@
     <t>PROSParking was goodCONSHoles in doors, screws coming out of walls, hot tub wasn't hot, smelled like pot throughout the hotel, one of the beds didn't come with a fitted sheet on it, keys to rooms weren't reliable, breakfast was barely anything</t>
   </si>
   <si>
+    <t>ltdCurly21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r260033479-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1020,9 @@
     <t>Took my daughter for a quick overnight stay to Dallas for BeautyCon. The property is older and your expectations can't be those of a 4star hotel but the staff was courteous. We had no issues with our stay. We would go back for short term needs.</t>
   </si>
   <si>
+    <t>Andrea C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r259005038-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1038,9 @@
     <t xml:space="preserve">This place needs to be condemned. There is standing stagnated sewage in every room..the so callled heated pool and spa were cold and had ceiling tile floating in them. My family will never go or recommend this hotel to anyone again  </t>
   </si>
   <si>
+    <t>Delhagen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r247731051-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1059,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Johnny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r246340480-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1077,9 @@
     <t xml:space="preserve">We wanted to use a motel/hotel in our neighborhood as an "extra" room for family at Christmas. My son's family stayed there and they said it was OK to Good. Relative to other motels in our neighborhood it was Excellent. </t>
   </si>
   <si>
+    <t>jamiemC6976YB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r245681955-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1095,9 @@
     <t>The first room we got had not been cleaned and it was after 3 when check in was 2. The 2nd room the fridge was not plugged in</t>
   </si>
   <si>
+    <t>womerj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r237869754-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1110,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>daniely336</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r237504878-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1131,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>TimHuckabee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r235261843-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1149,9 @@
     <t>I have never stayed in such a poorly maintained hotel - and I travel 3 weeks out of 4.The wooden chair was broken with a jagged spike sticking out (great in case of vampire attack but dangerous otherwise!) Didn't housekeeping see this???Huge rips in the wallpaper and a hole kicked in the bathroom door, covered with faux wood masking tape. Dirty rugs, broken outlets. What a dump for a big-city hotel.</t>
   </si>
   <si>
+    <t>jackie0619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r222841462-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1170,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Shawn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r220228171-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1182,9 @@
     <t>08/07/2014</t>
   </si>
   <si>
+    <t>Larita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r217017838-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1197,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Overton I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r213377932-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1212,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Jesus R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r212339355-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1224,9 @@
     <t>06/27/2014</t>
   </si>
   <si>
+    <t>Shannon N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r205870167-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1242,9 @@
     <t>- Hallways smelled bad- Ice machine on bottom floor had broke and leaked through the wall and floor onto the other side and soak the carpet in hall, smelled bad- hole in bathroom door that wouldn't close- pool was not heated as advertised- front desk help was nice enough</t>
   </si>
   <si>
+    <t>Charles W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r201664057-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1263,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Jerry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r200352034-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1281,9 @@
     <t>I got this room because it was inexpensive, but it's not worth it when you worry about the cleanliness of the bed so you can't sleep, when room next door people are physically and verbally fighting til 2 am, couldn't even find a clerk at check-in. Never again. Also, trouble with internet connection - trouble connecting, when did connect trouble functioning, so slow, wonder if safe?</t>
   </si>
   <si>
+    <t>Patrick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r196405746-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1296,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Trang H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r185124948-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1317,9 @@
     <t>Responded November 21, 2013</t>
   </si>
   <si>
+    <t>Mary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r184568878-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1335,9 @@
     <t>The bedspread had cigerette burns so did the blankets. The bathroom ceinling had black mold growing on the ceiling. The pool area had no towels available. The walss were cracked in by the window. One window was open, I thought that was a security risk. The ceiling had panels missing. Breakfast was horrible.</t>
   </si>
   <si>
+    <t>Holly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r184289493-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1356,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Keith K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r181193722-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1377,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>PriyankMG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r181054554-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1389,9 @@
     <t>10/14/2013</t>
   </si>
   <si>
+    <t>Barbara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r174705017-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1410,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Krista G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r172809880-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1422,9 @@
     <t>08/18/2013</t>
   </si>
   <si>
+    <t>James C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r171780308-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1440,9 @@
     <t>The overnight stay at this Super 8 was acceptable. Motel was secure. Cleanliness was somewhat dissappointing. A dead cockroach was found on bathroom floor. Continental breakfast was a little lacking in choiices.</t>
   </si>
   <si>
+    <t>Justina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r170953764-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1455,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Jackiean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r165254753-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1479,9 @@
     <t>Four stars for the budget hotel that it is. It is great for its class. Some of the previous reviews seemed to be unfair given the low price of this hotel stay. It is not the four seasons but it does not charge four seasons prices either.CONS: The décor and furnishings are worn and dated. The paint is peeling in some places. The first floor ice machine was broken and the treadmill was broken.PROS: Great price, clean rooms, clean linens, micro fridge included. Great staff, fantastic heated indoor pool and spa, free breakfast included cereal, toast, coffee, juice, and/or pastries - a bit sparse compared to some but we just  bought our own extras and kept them in the included mini-fridge. The ice machine on second floor worked fine. They also offer a laundromat room on the third floor which we used and were happy to have. We would stay here again and recommend it to anyone who is looking to travel on a budget.More</t>
   </si>
   <si>
+    <t>Harris D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r164263147-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1497,9 @@
     <t xml:space="preserve">Although the place was peaceful, the room was decent but outdated. The first room smelled so badly of smoke I had to change to another room. I feel the rooms could use a makeover and be brought to the 21st century. A radio/ MPC player, comforters, pictures and shower curtain. </t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r164001191-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1515,9 @@
     <t xml:space="preserve">I'm beginning to think it's worth a few dollars more to try another chain. After checking in found the sink was clogged,  it took over 24 hours to get it fixed. Morning staff friendly,  evening staff was rude at times. Magnetic lock speed working the night before checkout, but just used deadbolt since we were not going out again. Hotel needs work and is apparent as soon as you start to walk down the hall. Best feature was the indoor pool which was or main reason for this location.  </t>
   </si>
   <si>
+    <t>Ronald H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r156330416-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1530,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Darezzo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r156175839-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1542,9 @@
     <t>03/31/2013</t>
   </si>
   <si>
+    <t>Malcolm L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r155552791-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1554,9 @@
     <t>03/24/2013</t>
   </si>
   <si>
+    <t>Nate T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r154277480-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1575,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Eric W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r154043304-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1593,9 @@
     <t>Overall my stay at this super8 was a great experience. The only thing is i didnt see good breakfast items put out for customers. The food look kind of old. Other wise i had a good stay.</t>
   </si>
   <si>
+    <t>Kristan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r152586876-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1611,9 @@
     <t>I stayed 3 nights for less than $150 and it had more amenities than the more expensive hotels Staff was friendly, they had a indoor pool,breakfast,cable and a fridge and mircowave in the room too! room was cleaned daily and it was quiet at night also so overall it was the best hotel ive stayed in a long time without emptying my pockets...very worth the money. only thing is breakfast goes pretty fast but thats nothing though.</t>
   </si>
   <si>
+    <t>CoffeeHotelMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r146593238-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1629,9 @@
     <t>It's okay... The place really needs a make-over. There's stains on the carpet and the room looks a little dirty but not too much. The exercise room sucks nothing in there worked but at least they had a flat screen in there. The pool was nice though. The staff is okay they're not rude and they're not super friendly they're just "okay" as I said. There's a soda vending machine on every floor so you don't have to go all the way down to first floor. So if your low on cash and need to stay somewhere super 8 would be okay.</t>
   </si>
   <si>
+    <t>RENIE_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r146118089-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1644,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>RICK R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r144146390-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1665,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>nohaypalabras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142785960-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1686,9 @@
     <t>Wow! How to explain! When we first checked in they gave us room that was either not cleaned yet or still occupied. We go back to the service desk and no one to be found. Then we finally got another room. We came from out of town and I have to say it was right off 635, so that was easy to get to. When we went to go to bed my son and husband we already in bed i pulled the sheets and there bugs under the pillow and a someones bra! I could also tell the pillow cases were not washed because there was lipstick still there. Yuck! We decided to leave and they refused to refund or discount us. They did offer our next time to be free!! No way!!More</t>
   </si>
   <si>
+    <t>CHESTERLEAN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142603805-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1446,6 +1698,9 @@
     <t>10/11/2012</t>
   </si>
   <si>
+    <t>NATHAN A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r142438811-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1710,9 @@
     <t>10/09/2012</t>
   </si>
   <si>
+    <t>Tracy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r135296051-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1734,9 @@
     <t>We were staying at the Super 8 for a clean, inexpensive room for a softball tournament. The room smelled funny, carpets ripped, holes in doors, walls, comforters, etc. The worst hotel experience I have ever had....when we got up to leave the next morning someone had tried to steal our vehicle. The would-be thieves destroyed the door lock, steering column. They also damaged the tailgate trying to break into the truckbed cover we had. I immediately went in to ask for a refund for my second night. The management was accommodating in refunding my money but I would never recommend this hotel to anyone. While filing the police report for the attempted theft we were told the area is known to be frequented by vagrants. My husband was so grossed out by the room he slept in his clothes.More</t>
   </si>
   <si>
+    <t>Sandi N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r132349984-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1497,6 +1758,9 @@
     <t>My sisters and my mom were here for a funeral.  The manager found out and offered us another room (there were 5 of us) at a huge discount.  He also let us use his laptop so we could look up restaurants in the area.  The next day he allowed us to keep our rooms longer so we could leave from there to go to the service.  The rooms were clean and the beds were comfortable.  The only complaint is the breakfast which is not very substantial but we went down the street to the Waffle House.  It's a basic hotel with no amenities but the management, clean and comfortable rooms are recommended!More</t>
   </si>
   <si>
+    <t>Barb N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r129173793-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1779,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>ppbrittain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r91146582-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1803,9 @@
     <t>The first room we were given had a heater unit that had the knobs broken off and a TV that sounded like it was about to detonate each time we turned it on.  The GM cheerfully gave us a different room.  Although we had to use the sun lamp in the bathroom because the regular overhead light was burned out, the room was fine.You could tell that this used to be a pretty nice place and has been abused by some of the lodgers.  Some fresh paint and bit of refreshing would go a long way.  The location is good, the price is right and the GM is very nice.More</t>
   </si>
   <si>
+    <t>theOLDFRED</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r49461418-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1822,9 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>agent338</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d241642-r10064071-Super_8_Garland_North_Dallas_Area-Garland_Texas.html</t>
@@ -2077,28 +2350,32 @@
       <c r="A2" t="n">
         <v>39899</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178854</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -2106,10 +2383,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2130,51 +2407,52 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39899</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178855</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2188,50 +2466,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39899</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2245,50 +2527,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39899</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178857</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2302,50 +2588,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39899</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2359,50 +2649,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39899</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178859</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2426,50 +2720,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39899</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178860</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2483,50 +2781,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39899</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178861</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2544,56 +2846,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39899</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178862</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2607,50 +2913,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39899</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178863</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2674,50 +2984,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39899</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178864</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2741,50 +3055,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39899</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178865</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2808,50 +3126,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39899</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178866</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2865,50 +3187,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39899</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178867</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2932,50 +3258,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39899</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178868</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2999,35 +3329,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39899</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178869</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3035,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3059,51 +3393,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39899</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>83591</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3127,48 +3462,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39899</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178870</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3192,35 +3531,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39899</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178871</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3228,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3252,49 +3595,50 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39899</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178872</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3316,56 +3660,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="X21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39899</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178873</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3379,35 +3727,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39899</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178874</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3415,10 +3767,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3439,51 +3791,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39899</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178875</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3507,35 +3860,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39899</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178876</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3543,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3567,36 +3924,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39899</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178877</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3604,10 +3962,10 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3628,36 +3986,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39899</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178878</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3665,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3689,51 +4048,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39899</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178879</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3749,35 +4109,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39899</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178880</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3785,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3801,51 +4165,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39899</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>7790</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3865,7 +4230,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -3878,37 +4243,37 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3932,50 +4297,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39899</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178881</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3999,7 +4368,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
@@ -4012,37 +4381,37 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4066,50 +4435,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39899</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178882</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4133,35 +4506,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39899</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178883</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4169,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4193,51 +4570,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39899</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178884</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4261,50 +4639,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39899</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178885</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4328,50 +4710,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39899</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178886</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4389,35 +4775,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39899</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178887</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4425,10 +4815,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4449,51 +4839,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39899</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178888</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4517,50 +4908,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39899</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178889</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J41" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4584,50 +4979,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39899</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178890</v>
+      </c>
+      <c r="C42" t="s">
+        <v>290</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="J42" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4651,50 +5050,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39899</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178891</v>
+      </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="O43" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4718,50 +5121,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39899</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>303</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4775,50 +5182,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39899</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>3895</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4842,50 +5253,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39899</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>14211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4909,50 +5324,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39899</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178892</v>
+      </c>
+      <c r="C47" t="s">
+        <v>323</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4976,50 +5395,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39899</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178893</v>
+      </c>
+      <c r="C48" t="s">
+        <v>329</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="J48" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="O48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5043,50 +5466,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39899</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>13163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5110,50 +5537,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39899</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178894</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5177,50 +5608,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39899</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178895</v>
+      </c>
+      <c r="C51" t="s">
+        <v>347</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="O51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5234,50 +5669,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39899</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178896</v>
+      </c>
+      <c r="C52" t="s">
+        <v>353</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="J52" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="K52" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="O52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5301,48 +5740,52 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39899</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178897</v>
+      </c>
+      <c r="C53" t="s">
+        <v>359</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="J53" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5366,50 +5809,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39899</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178898</v>
+      </c>
+      <c r="C54" t="s">
+        <v>364</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="J54" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="K54" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5433,50 +5880,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39899</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178899</v>
+      </c>
+      <c r="C55" t="s">
+        <v>371</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="K55" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -5496,50 +5947,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39899</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178900</v>
+      </c>
+      <c r="C56" t="s">
+        <v>377</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="J56" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="K56" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="O56" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5553,35 +6008,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39899</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>17750</v>
+      </c>
+      <c r="C57" t="s">
+        <v>384</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J57" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5589,10 +6048,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5613,36 +6072,37 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39899</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178901</v>
+      </c>
+      <c r="C58" t="s">
+        <v>388</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="J58" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5650,10 +6110,10 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5674,36 +6134,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39899</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178902</v>
+      </c>
+      <c r="C59" t="s">
+        <v>393</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="J59" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5711,10 +6172,10 @@
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5735,36 +6196,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39899</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C60" t="s">
+        <v>398</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="J60" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5772,10 +6234,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5796,42 +6258,43 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39899</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>16023</v>
+      </c>
+      <c r="C61" t="s">
+        <v>402</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
@@ -5850,50 +6313,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39899</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>408</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="O62" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -5915,50 +6382,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39899</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>6805</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="O63" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -5982,48 +6453,52 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39899</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>36449</v>
+      </c>
+      <c r="C64" t="s">
+        <v>421</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="J64" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="O64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6047,48 +6522,52 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39899</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178903</v>
+      </c>
+      <c r="C65" t="s">
+        <v>426</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="J65" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="O65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6110,56 +6589,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="X65" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39899</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>2595</v>
+      </c>
+      <c r="C66" t="s">
+        <v>433</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="O66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6183,50 +6666,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39899</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>25073</v>
+      </c>
+      <c r="C67" t="s">
+        <v>439</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="J67" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="K67" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6250,50 +6737,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39899</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>74790</v>
+      </c>
+      <c r="C68" t="s">
+        <v>446</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="J68" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="K68" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -6317,35 +6808,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39899</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178904</v>
+      </c>
+      <c r="C69" t="s">
+        <v>453</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="J69" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6353,10 +6848,10 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6377,51 +6872,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39899</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>6416</v>
+      </c>
+      <c r="C70" t="s">
+        <v>457</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="J70" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="K70" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="L70" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6445,35 +6941,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39899</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178905</v>
+      </c>
+      <c r="C71" t="s">
+        <v>464</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="J71" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6481,10 +6981,10 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="O71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6505,51 +7005,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39899</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>4611</v>
+      </c>
+      <c r="C72" t="s">
+        <v>468</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="J72" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="K72" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="O72" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6573,35 +7074,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39899</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>178906</v>
+      </c>
+      <c r="C73" t="s">
+        <v>474</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="J73" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6609,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6633,51 +7138,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39899</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178907</v>
+      </c>
+      <c r="C74" t="s">
+        <v>479</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="J74" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="K74" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6701,50 +7207,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39899</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>178908</v>
+      </c>
+      <c r="C75" t="s">
+        <v>487</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="J75" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="K75" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
       <c r="L75" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -6768,50 +7278,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39899</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C76" t="s">
+        <v>493</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="J76" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="K76" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6835,35 +7349,39 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39899</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>7846</v>
+      </c>
+      <c r="C77" t="s">
+        <v>499</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="J77" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -6871,10 +7389,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O77" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -6895,36 +7413,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39899</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>178909</v>
+      </c>
+      <c r="C78" t="s">
+        <v>504</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="J78" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -6932,10 +7451,10 @@
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6956,36 +7475,37 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39899</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178910</v>
+      </c>
+      <c r="C79" t="s">
+        <v>508</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="J79" t="s">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -6993,10 +7513,10 @@
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7017,51 +7537,52 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39899</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>178911</v>
+      </c>
+      <c r="C80" t="s">
+        <v>512</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
       <c r="J80" t="s">
-        <v>438</v>
+        <v>515</v>
       </c>
       <c r="K80" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
       <c r="L80" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="O80" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -7085,50 +7606,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39899</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>13433</v>
+      </c>
+      <c r="C81" t="s">
+        <v>519</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="J81" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="K81" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7150,50 +7675,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39899</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>178912</v>
+      </c>
+      <c r="C82" t="s">
+        <v>525</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="J82" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="K82" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="L82" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7217,41 +7746,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39899</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>178913</v>
+      </c>
+      <c r="C83" t="s">
+        <v>531</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="J83" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="K83" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -7280,48 +7813,52 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39899</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>178914</v>
+      </c>
+      <c r="C84" t="s">
+        <v>537</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="J84" t="s">
-        <v>459</v>
+        <v>540</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7343,50 +7880,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39899</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>178915</v>
+      </c>
+      <c r="C85" t="s">
+        <v>542</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="J85" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K85" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="L85" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="O85" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -7410,41 +7951,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39899</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>178916</v>
+      </c>
+      <c r="C86" t="s">
+        <v>549</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="J86" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="K86" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
@@ -7473,35 +8018,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>472</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39899</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>178917</v>
+      </c>
+      <c r="C87" t="s">
+        <v>556</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="J87" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7509,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="O87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7533,36 +8082,37 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39899</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>178918</v>
+      </c>
+      <c r="C88" t="s">
+        <v>560</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="J88" t="s">
-        <v>478</v>
+        <v>563</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7570,10 +8120,10 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="O88" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -7594,51 +8144,52 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39899</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>15535</v>
+      </c>
+      <c r="C89" t="s">
+        <v>564</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="J89" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
       <c r="K89" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="L89" t="s">
-        <v>483</v>
+        <v>569</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
       <c r="O89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -7662,50 +8213,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>485</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39899</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>178919</v>
+      </c>
+      <c r="C90" t="s">
+        <v>572</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="J90" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="K90" t="s">
-        <v>489</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s">
-        <v>490</v>
+        <v>577</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>491</v>
+        <v>578</v>
       </c>
       <c r="O90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7729,50 +8284,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39899</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>178920</v>
+      </c>
+      <c r="C91" t="s">
+        <v>580</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="J91" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="O91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -7796,50 +8355,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39899</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178921</v>
+      </c>
+      <c r="C92" t="s">
+        <v>587</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>499</v>
+        <v>588</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="J92" t="s">
-        <v>501</v>
+        <v>590</v>
       </c>
       <c r="K92" t="s">
-        <v>502</v>
+        <v>591</v>
       </c>
       <c r="L92" t="s">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>504</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -7863,50 +8426,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39899</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>178922</v>
+      </c>
+      <c r="C93" t="s">
+        <v>595</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="J93" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -7930,50 +8497,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>39899</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>178923</v>
+      </c>
+      <c r="C94" t="s">
+        <v>602</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>512</v>
+        <v>603</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="J94" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="K94" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="L94" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>517</v>
+        <v>608</v>
       </c>
       <c r="O94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -7997,7 +8568,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>518</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
